--- a/Income/FE_inc.xlsx
+++ b/Income/FE_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.2973</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.3136</v>
+        <v>0.401</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.4119</v>
+        <v>0.4998</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.5049</v>
+        <v>0.5929</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.6032</v>
+        <v>0.6897</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.6909</v>
@@ -2362,16 +2362,16 @@
         <v>0.093</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.0556</v>
+        <v>0.0627</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.0496</v>
+        <v>0.0567</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0497</v>
+        <v>0.0568</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.0753</v>
+        <v>0.0823</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.1048</v>
